--- a/Listado de colegio.xlsx
+++ b/Listado de colegio.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6750"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="LISTADO DE PROFESOR X CURSO" sheetId="1" r:id="rId1"/>
+    <sheet name="LISTADO DE ALUMNOS X SECCION" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,6 +22,53 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>DOCENTES</t>
+  </si>
+  <si>
+    <t>CURSO</t>
+  </si>
+  <si>
+    <t>MATEMATICA</t>
+  </si>
+  <si>
+    <t>COMUNICACIÓN</t>
+  </si>
+  <si>
+    <t>INGLES</t>
+  </si>
+  <si>
+    <t>EDUCACCIÓN RELIGIOSA</t>
+  </si>
+  <si>
+    <t>TUTORIA</t>
+  </si>
+  <si>
+    <t>EDUCACCIÓN FISICA</t>
+  </si>
+  <si>
+    <t>CIENCIA,TECNOLOGIA Y AMBIENTE</t>
+  </si>
+  <si>
+    <t>FORMACION CIVICA Y CIUDADANA</t>
+  </si>
+  <si>
+    <t>HISTORIA ,GEOGRAFIA Y ECONOMIA</t>
+  </si>
+  <si>
+    <t>PERSONA ,FAMILIA Y RELACIONES HUMANAS</t>
+  </si>
+  <si>
+    <t>EDUCACION PARA EL TRABAJO</t>
+  </si>
+  <si>
+    <t>ARTE</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -34,15 +82,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -50,12 +104,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -336,9 +409,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="39.85546875" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
